--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_128__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_128__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,40 +5417,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>7.460569381713867</c:v>
+                  <c:v>7.460563182830811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.176272869110107</c:v>
+                  <c:v>7.176261425018311</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>82.96894073486328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.007481575012207</c:v>
+                  <c:v>5.007478713989258</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>97.74285125732422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.36600494384766</c:v>
+                  <c:v>33.36601638793945</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.45656618475914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.5823469758033752</c:v>
+                  <c:v>-0.5823476910591125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>96.74699401855469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.6837155818939209</c:v>
+                  <c:v>-0.6837100982666016</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>97.16480255126953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.923269867897034</c:v>
+                  <c:v>-1.923261761665344</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.3934972286224365</c:v>
@@ -5465,37 +5465,37 @@
                   <c:v>88.26559448242188</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.22469329833984</c:v>
+                  <c:v>76.22468566894531</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>98.23146820068359</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.5221098661422729</c:v>
+                  <c:v>-0.5220984220504761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.55508422851562</c:v>
+                  <c:v>98.55509948730469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.18917274475098</c:v>
+                  <c:v>26.18917083740234</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.31246948242188</c:v>
+                  <c:v>98.31248474121094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.5490221381187439</c:v>
+                  <c:v>-0.5490279793739319</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.5718351602554321</c:v>
+                  <c:v>-0.5718407034873962</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.8626452684402466</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.4901602268218994</c:v>
+                  <c:v>-0.4901598393917084</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4292721152305603</c:v>
+                  <c:v>0.4292805790901184</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.7182993292808533</c:v>
@@ -5504,34 +5504,34 @@
                   <c:v>89.64645385742188</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.5860724449157715</c:v>
+                  <c:v>-0.586084246635437</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>98.57979583740234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>101.199462890625</c:v>
+                  <c:v>101.1994705200195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.6775805950164795</c:v>
+                  <c:v>-0.677585780620575</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>98.07601165771484</c:v>
+                  <c:v>98.07599639892578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1245126947760582</c:v>
+                  <c:v>0.124513067305088</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>98.03960418701172</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8729785084724426</c:v>
+                  <c:v>0.8729836344718933</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>92.15984344482422</c:v>
+                  <c:v>92.15986633300781</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>80.51865386962891</c:v>
+                  <c:v>80.51863861083984</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>48.1496467590332</c:v>
@@ -5543,25 +5543,25 @@
                   <c:v>-0.2908947765827179</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>94.91396331787109</c:v>
+                  <c:v>94.91394805908203</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>98.02577972412109</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.6075783967971802</c:v>
+                  <c:v>-0.6075787544250488</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.3246537446975708</c:v>
+                  <c:v>-0.3246423304080963</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>98.1085205078125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.5908899903297424</c:v>
+                  <c:v>-0.590901792049408</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.10865318775177</c:v>
+                  <c:v>-1.108647346496582</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>97.82850646972656</c:v>
@@ -5576,13 +5576,13 @@
                   <c:v>97.82546997070312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>91.03404998779297</c:v>
+                  <c:v>91.03404235839844</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>97.01787567138672</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.6037712097167969</c:v>
+                  <c:v>-0.6037707924842834</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>98.21315765380859</c:v>
@@ -5591,43 +5591,43 @@
                   <c:v>98.73047637939453</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.271246552467346</c:v>
+                  <c:v>-1.271249055862427</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>97.69887542724609</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.1519360244274139</c:v>
+                  <c:v>-0.1519363969564438</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.944618821144104</c:v>
+                  <c:v>0.9446070194244385</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.5515251159668</c:v>
+                  <c:v>40.55152893066406</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>-0.599758505821228</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>97.72904205322266</c:v>
+                  <c:v>97.72902679443359</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.6060791015625</c:v>
+                  <c:v>-0.6060845851898193</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>72.54910278320312</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.8682717680931091</c:v>
+                  <c:v>-0.8682687878608704</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.7904052734375</c:v>
+                  <c:v>98.79039001464844</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>98.54032135009766</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>98.78207397460938</c:v>
+                  <c:v>98.78208923339844</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>95.30518341064453</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>98.42807006835938</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.6633116602897644</c:v>
+                  <c:v>-0.6633234620094299</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>98.72402191162109</c:v>
@@ -5651,28 +5651,28 @@
                   <c:v>92.98118591308594</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.5034302473068237</c:v>
+                  <c:v>-0.5034235715866089</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.240777492523193</c:v>
+                  <c:v>6.24077844619751</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>98.63010406494141</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>66.84074401855469</c:v>
+                  <c:v>66.84073638916016</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.8439763188362122</c:v>
+                  <c:v>-0.8439645171165466</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.3959343433380127</c:v>
+                  <c:v>-0.3959291875362396</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>98.68811798095703</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.5792319774627686</c:v>
+                  <c:v>-0.5792202353477478</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9.940386772155762</c:v>
@@ -5681,10 +5681,10 @@
                   <c:v>97.95587921142578</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.4111157059669495</c:v>
+                  <c:v>-0.411109447479248</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91.92920684814453</c:v>
+                  <c:v>91.92921447753906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.460569381713867</v>
+        <v>7.460563182830811</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.176272869110107</v>
+        <v>7.176261425018311</v>
       </c>
       <c r="G3">
         <v>102</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.007481575012207</v>
+        <v>5.007478713989258</v>
       </c>
       <c r="G5">
         <v>102</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>33.36600494384766</v>
+        <v>33.36601638793945</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.5823469758033752</v>
+        <v>-0.5823476910591125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.6837155818939209</v>
+        <v>-0.6837100982666016</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1.923269867897034</v>
+        <v>-1.923261761665344</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>76.22469329833984</v>
+        <v>76.22468566894531</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.5221098661422729</v>
+        <v>-0.5220984220504761</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>98.55508422851562</v>
+        <v>98.55509948730469</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>26.18917274475098</v>
+        <v>26.18917083740234</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>98.31246948242188</v>
+        <v>98.31248474121094</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.5490221381187439</v>
+        <v>-0.5490279793739319</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.5718351602554321</v>
+        <v>-0.5718407034873962</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.4901602268218994</v>
+        <v>-0.4901598393917084</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.4292721152305603</v>
+        <v>0.4292805790901184</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.5860724449157715</v>
+        <v>-0.586084246635437</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>101.199462890625</v>
+        <v>101.1994705200195</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.6775805950164795</v>
+        <v>-0.677585780620575</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>98.07601165771484</v>
+        <v>98.07599639892578</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.1245126947760582</v>
+        <v>0.124513067305088</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.8729785084724426</v>
+        <v>0.8729836344718933</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>92.15984344482422</v>
+        <v>92.15986633300781</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>80.51865386962891</v>
+        <v>80.51863861083984</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>94.91396331787109</v>
+        <v>94.91394805908203</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.6075783967971802</v>
+        <v>-0.6075787544250488</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.3246537446975708</v>
+        <v>-0.3246423304080963</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.5908899903297424</v>
+        <v>-0.590901792049408</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-1.10865318775177</v>
+        <v>-1.108647346496582</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>91.03404998779297</v>
+        <v>91.03404235839844</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.6037712097167969</v>
+        <v>-0.6037707924842834</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1.271246552467346</v>
+        <v>-1.271249055862427</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.1519360244274139</v>
+        <v>-0.1519363969564438</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.944618821144104</v>
+        <v>0.9446070194244385</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>40.5515251159668</v>
+        <v>40.55152893066406</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>97.72904205322266</v>
+        <v>97.72902679443359</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.6060791015625</v>
+        <v>-0.6060845851898193</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.8682717680931091</v>
+        <v>-0.8682687878608704</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>98.7904052734375</v>
+        <v>98.79039001464844</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>98.78207397460938</v>
+        <v>98.78208923339844</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.6633116602897644</v>
+        <v>-0.6633234620094299</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.5034302473068237</v>
+        <v>-0.5034235715866089</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>6.240777492523193</v>
+        <v>6.24077844619751</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>66.84074401855469</v>
+        <v>66.84073638916016</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.8439763188362122</v>
+        <v>-0.8439645171165466</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.3959343433380127</v>
+        <v>-0.3959291875362396</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.5792319774627686</v>
+        <v>-0.5792202353477478</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.4111157059669495</v>
+        <v>-0.411109447479248</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>91.92920684814453</v>
+        <v>91.92921447753906</v>
       </c>
     </row>
     <row r="92" spans="1:6">
